--- a/DATA_goal/Junction_Flooding_349.xlsx
+++ b/DATA_goal/Junction_Flooding_349.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45030.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.86</v>
+        <v>48.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.03</v>
+        <v>60.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.31</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.15</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.4</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.73</v>
+        <v>267.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.03</v>
+        <v>50.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.32</v>
+        <v>53.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45030.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.2</v>
+        <v>21.97</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.05</v>
+        <v>40.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.65</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.15</v>
+        <v>141.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.74</v>
+        <v>27.44</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.14</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.25</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.67</v>
+        <v>36.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45030.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.47</v>
+        <v>24.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.62</v>
+        <v>36.25</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.78</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="AC4" s="4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.27</v>
+        <v>32.65</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45030.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.42</v>
+        <v>24.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_349.xlsx
+++ b/DATA_goal/Junction_Flooding_349.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.92</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.56</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.15</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.26</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.88</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.31</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.4</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.06</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.34</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.26</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.39</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.2</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.44</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.25</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.83</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45030.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.685</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.54</v>
+        <v>26.538</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.97</v>
+        <v>21.974</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>40.52</v>
+        <v>40.516</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.49</v>
+        <v>6.486</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.851000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.65</v>
+        <v>10.654</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.081</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.14</v>
+        <v>3.142</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.77</v>
+        <v>13.768</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>8.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.595</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.48</v>
+        <v>141.476</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.44</v>
+        <v>27.438</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.14</v>
+        <v>18.145</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.709</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.14</v>
+        <v>19.137</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.25</v>
+        <v>7.251</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.48</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.075</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.66</v>
+        <v>36.658</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.98</v>
+        <v>4.984</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>11.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.212</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.67</v>
+        <v>24.669</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.42</v>
+        <v>20.423</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.25</v>
+        <v>36.245</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.06</v>
+        <v>6.061</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.135999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.962</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.36</v>
+        <v>10.356</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.899</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.74</v>
+        <v>12.739</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.74</v>
+        <v>7.743</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.044</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.664</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.02</v>
+        <v>130.015</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.26</v>
+        <v>25.257</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.78</v>
+        <v>16.778</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.022</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.073</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.2</v>
+        <v>17.203</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.644</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.78</v>
+        <v>7.783</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.39</v>
+        <v>10.387</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.65</v>
+        <v>32.652</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>4.62</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45030.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_349.xlsx
+++ b/DATA_goal/Junction_Flooding_349.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>45030.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.8</v>
@@ -976,94 +976,198 @@
         <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.46</v>
+        <v>17.457</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.45</v>
+        <v>14.453</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.75</v>
+        <v>26.752</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.293</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.44</v>
+        <v>6.443</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.09</v>
+        <v>7.086</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.32</v>
+        <v>7.324</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.05</v>
+        <v>2.055</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.52</v>
+        <v>5.524</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.95999999999999</v>
+        <v>89.961</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.94</v>
+        <v>17.941</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.9</v>
+        <v>11.895</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.42</v>
+        <v>6.425</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.6</v>
+        <v>12.597</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.527</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.377</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.18</v>
+        <v>24.179</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45030.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_349.xlsx
+++ b/DATA_goal/Junction_Flooding_349.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>45030.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.167</v>
+        <v>8.17</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.8</v>
@@ -976,198 +976,94 @@
         <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.457</v>
+        <v>17.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.453</v>
+        <v>14.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.427</v>
+        <v>6.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.752</v>
+        <v>26.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.293</v>
+        <v>4.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.443</v>
+        <v>6.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.086</v>
+        <v>7.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.324</v>
+        <v>7.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.055</v>
+        <v>2.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.391</v>
+        <v>6.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.023</v>
+        <v>9.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.524</v>
+        <v>5.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.961</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.941</v>
+        <v>17.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.899</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.895</v>
+        <v>11.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.425</v>
+        <v>6.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.597</v>
+        <v>12.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.211</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.527</v>
+        <v>5.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.377</v>
+        <v>7.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.179</v>
+        <v>24.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.256</v>
+        <v>3.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.376</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45030.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>
